--- a/Candidats.xlsx
+++ b/Candidats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Candidats the voice</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hibatawaji </t>
+  </si>
+  <si>
+    <t>mathilde_music</t>
+  </si>
+  <si>
+    <t>BattistaAcquavi</t>
+  </si>
+  <si>
+    <t>DiemTheVoice</t>
+  </si>
+  <si>
+    <t>manonpalmer</t>
+  </si>
+  <si>
+    <t>JohannaSerrano_</t>
+  </si>
+  <si>
+    <t>SweetJane_Music</t>
+  </si>
+  <si>
+    <t>boechat rany</t>
+  </si>
+  <si>
+    <t>eugenieomey</t>
   </si>
 </sst>
 </file>
@@ -774,15 +801,17 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -841,7 +870,9 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
@@ -859,7 +890,9 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -877,7 +910,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
@@ -895,7 +930,7 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
@@ -907,13 +942,17 @@
       <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
@@ -931,7 +970,9 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
@@ -949,7 +990,9 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
@@ -967,7 +1010,9 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1030,9 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
